--- a/src/Product.xlsx
+++ b/src/Product.xlsx
@@ -16,29 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">afs </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">af </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">se </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sgf </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s f</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone11 plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清画质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为mate70 pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大广角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,40 +393,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>111</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
